--- a/Plancheck/plancheck_data/check_protocol/v19/STEC vertebre T4-L4-3F.xlsx
+++ b/Plancheck/plancheck_data/check_protocol/v19/STEC vertebre T4-L4-3F.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -694,13 +694,13 @@
     <t>T2**SPACE**3D</t>
   </si>
   <si>
-    <t>T1**GADO**DIXON</t>
-  </si>
-  <si>
     <t>PTV_HAUTE_DOSE</t>
   </si>
   <si>
     <t>PTV_AUTRES</t>
+  </si>
+  <si>
+    <t>T1**GADO</t>
   </si>
 </sst>
 </file>
@@ -1696,8 +1696,8 @@
   </sheetPr>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2430,7 +2430,7 @@
         <v>222</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D53" s="30"/>
       <c r="E53" s="30"/>
@@ -3127,7 +3127,7 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -3509,7 +3509,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B31" s="33" t="s">
         <v>188</v>
@@ -3518,7 +3518,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>190</v>
